--- a/DUNZO.xlsx
+++ b/DUNZO.xlsx
@@ -4059,35 +4059,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4100,6 +4071,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4329,8 +4329,8 @@
   </sheetPr>
   <dimension ref="A1:Z1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4372,16 +4372,16 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -4432,18 +4432,18 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="54" t="s">
         <v>859</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4464,14 +4464,14 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -4539,7 +4539,7 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4583,7 +4583,7 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="17" t="s">
         <v>860</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
@@ -4793,7 +4793,7 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4837,7 +4837,7 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="18" t="s">
         <v>36</v>
       </c>
@@ -4963,7 +4963,7 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -5007,7 +5007,7 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="19" t="s">
         <v>42</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13" t="s">
         <v>863</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
@@ -5133,8 +5133,8 @@
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="40" t="s">
         <v>966</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -5175,7 +5175,7 @@
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="17" t="s">
         <v>47</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="13" t="s">
         <v>49</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="17" t="s">
         <v>51</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="A25" s="12">
         <v>19</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -5345,7 +5345,7 @@
       <c r="A26" s="12">
         <v>20</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="13" t="s">
         <v>55</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="A27" s="12">
         <v>21</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="13" t="s">
         <v>57</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="A28" s="12">
         <v>22</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13" t="s">
         <v>865</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="A29" s="12">
         <v>23</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="13" t="s">
         <v>62</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="A30" s="12">
         <v>24</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13" t="s">
         <v>65</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="13" t="s">
         <v>67</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="A32" s="12">
         <v>26</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13" t="s">
         <v>69</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="A33" s="12">
         <v>27</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="13" t="s">
         <v>71</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="A34" s="12">
         <v>28</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="13" t="s">
         <v>74</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="A35" s="12">
         <v>29</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="13" t="s">
         <v>77</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="A36" s="12">
         <v>30</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="18" t="s">
         <v>79</v>
       </c>
@@ -5807,7 +5807,7 @@
       <c r="A37" s="12">
         <v>31</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="13" t="s">
         <v>83</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="A38" s="12">
         <v>32</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="13" t="s">
         <v>88</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="A39" s="12">
         <v>33</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13" t="s">
         <v>867</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="A40" s="12">
         <v>34</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="13" t="s">
         <v>93</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="A41" s="12">
         <v>35</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="13" t="s">
         <v>96</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="A42" s="12">
         <v>36</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="13" t="s">
         <v>99</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="13" t="s">
         <v>101</v>
       </c>
@@ -6101,7 +6101,7 @@
       <c r="A44" s="12">
         <v>38</v>
       </c>
-      <c r="B44" s="49"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="13" t="s">
         <v>104</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="A45" s="12">
         <v>39</v>
       </c>
-      <c r="B45" s="49"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="13" t="s">
         <v>107</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="13" t="s">
         <v>110</v>
       </c>
@@ -6227,7 +6227,7 @@
       <c r="A47" s="12">
         <v>41</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -6271,7 +6271,7 @@
       <c r="A48" s="12">
         <v>42</v>
       </c>
-      <c r="B48" s="49"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="13" t="s">
         <v>118</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="A49" s="12">
         <v>43</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="13" t="s">
         <v>120</v>
       </c>
@@ -6355,7 +6355,7 @@
       <c r="A50" s="12">
         <v>44</v>
       </c>
-      <c r="B50" s="49"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="13" t="s">
         <v>122</v>
       </c>
@@ -6397,7 +6397,7 @@
       <c r="A51" s="12">
         <v>45</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="13" t="s">
         <v>125</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="A52" s="12">
         <v>46</v>
       </c>
-      <c r="B52" s="49"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="13" t="s">
         <v>128</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="49"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="13" t="s">
         <v>131</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="A54" s="12">
         <v>48</v>
       </c>
-      <c r="B54" s="49"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="13" t="s">
         <v>134</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="A55" s="12">
         <v>49</v>
       </c>
-      <c r="B55" s="49"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="13" t="s">
         <v>137</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="49"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="13" t="s">
         <v>868</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="A57" s="12">
         <v>51</v>
       </c>
-      <c r="B57" s="43"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="13" t="s">
         <v>143</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="A58" s="12">
         <v>52</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="49" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -6735,7 +6735,7 @@
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="49"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="13" t="s">
         <v>152</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="A60" s="12">
         <v>54</v>
       </c>
-      <c r="B60" s="49"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="13" t="s">
         <v>156</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="49"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="13" t="s">
         <v>160</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="A62" s="12">
         <v>56</v>
       </c>
-      <c r="B62" s="49"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="13" t="s">
         <v>165</v>
       </c>
@@ -6903,7 +6903,7 @@
       <c r="A63" s="12">
         <v>57</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="13" t="s">
         <v>168</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="13" t="s">
         <v>172</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="A65" s="12">
         <v>59</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="49" t="s">
         <v>175</v>
       </c>
       <c r="C65" s="17" t="s">
@@ -7031,7 +7031,7 @@
       <c r="A66" s="12">
         <v>60</v>
       </c>
-      <c r="B66" s="49"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="17" t="s">
         <v>179</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="A67" s="12">
         <v>61</v>
       </c>
-      <c r="B67" s="49"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="13" t="s">
         <v>181</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="A68" s="12">
         <v>62</v>
       </c>
-      <c r="B68" s="49"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="17" t="s">
         <v>184</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="A69" s="12">
         <v>63</v>
       </c>
-      <c r="B69" s="49"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="18" t="s">
         <v>187</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="A70" s="12">
         <v>64</v>
       </c>
-      <c r="B70" s="49"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="18" t="s">
         <v>190</v>
       </c>
@@ -7241,7 +7241,7 @@
       <c r="A71" s="12">
         <v>65</v>
       </c>
-      <c r="B71" s="49"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="13" t="s">
         <v>193</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="A72" s="12">
         <v>66</v>
       </c>
-      <c r="B72" s="43"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="13" t="s">
         <v>197</v>
       </c>
@@ -7325,7 +7325,7 @@
       <c r="A73" s="12">
         <v>67</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="49" t="s">
         <v>200</v>
       </c>
       <c r="C73" s="17" t="s">
@@ -7369,7 +7369,7 @@
       <c r="A74" s="12">
         <v>68</v>
       </c>
-      <c r="B74" s="49"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="18" t="s">
         <v>203</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="A75" s="12">
         <v>69</v>
       </c>
-      <c r="B75" s="43"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="18" t="s">
         <v>206</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="A76" s="12">
         <v>70</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="49" t="s">
         <v>208</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -7497,7 +7497,7 @@
       <c r="A77" s="12">
         <v>71</v>
       </c>
-      <c r="B77" s="49"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="21" t="s">
         <v>211</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="A78" s="12">
         <v>72</v>
       </c>
-      <c r="B78" s="49"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="21" t="s">
         <v>215</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="A79" s="12">
         <v>73</v>
       </c>
-      <c r="B79" s="49"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="21" t="s">
         <v>217</v>
       </c>
@@ -7623,7 +7623,7 @@
       <c r="A80" s="12">
         <v>74</v>
       </c>
-      <c r="B80" s="49"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="21" t="s">
         <v>220</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="A81" s="12">
         <v>75</v>
       </c>
-      <c r="B81" s="49"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="21" t="s">
         <v>223</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="A82" s="12">
         <v>76</v>
       </c>
-      <c r="B82" s="49"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="21" t="s">
         <v>225</v>
       </c>
@@ -7749,7 +7749,7 @@
       <c r="A83" s="12">
         <v>77</v>
       </c>
-      <c r="B83" s="43"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="21" t="s">
         <v>228</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="A84" s="12">
         <v>78</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="43" t="s">
         <v>231</v>
       </c>
       <c r="C84" s="21" t="s">
@@ -7835,7 +7835,7 @@
       <c r="A85" s="12">
         <v>79</v>
       </c>
-      <c r="B85" s="49"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="21" t="s">
         <v>235</v>
       </c>
@@ -7877,7 +7877,7 @@
       <c r="A86" s="12">
         <v>80</v>
       </c>
-      <c r="B86" s="49"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="21" t="s">
         <v>237</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="A87" s="12">
         <v>81</v>
       </c>
-      <c r="B87" s="49"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="21" t="s">
         <v>239</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="A88" s="12">
         <v>82</v>
       </c>
-      <c r="B88" s="49"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="21" t="s">
         <v>241</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="A89" s="12">
         <v>83</v>
       </c>
-      <c r="B89" s="49"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="21" t="s">
         <v>242</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="A90" s="12">
         <v>84</v>
       </c>
-      <c r="B90" s="49"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="21" t="s">
         <v>244</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="A91" s="12">
         <v>85</v>
       </c>
-      <c r="B91" s="49"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="21" t="s">
         <v>246</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="A92" s="12">
         <v>86</v>
       </c>
-      <c r="B92" s="49"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="21" t="s">
         <v>248</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="A93" s="12">
         <v>87</v>
       </c>
-      <c r="B93" s="49"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="21" t="s">
         <v>250</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="A94" s="12">
         <v>88</v>
       </c>
-      <c r="B94" s="49"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="18" t="s">
         <v>873</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="A95" s="12">
         <v>89</v>
       </c>
-      <c r="B95" s="49"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="18" t="s">
         <v>253</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="A96" s="12">
         <v>90</v>
       </c>
-      <c r="B96" s="43"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="18" t="s">
         <v>255</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="A97" s="12">
         <v>91</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="48" t="s">
         <v>257</v>
       </c>
       <c r="C97" s="18" t="s">
@@ -8383,7 +8383,7 @@
       <c r="A98" s="12">
         <v>92</v>
       </c>
-      <c r="B98" s="49"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="18" t="s">
         <v>262</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="A99" s="12">
         <v>93</v>
       </c>
-      <c r="B99" s="49"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="18" t="s">
         <v>265</v>
       </c>
@@ -8467,7 +8467,7 @@
       <c r="A100" s="12">
         <v>94</v>
       </c>
-      <c r="B100" s="49"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="13" t="s">
         <v>71</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="A101" s="12">
         <v>95</v>
       </c>
-      <c r="B101" s="49"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="18" t="s">
         <v>271</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="A102" s="12">
         <v>96</v>
       </c>
-      <c r="B102" s="49"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="13" t="s">
         <v>274</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="A103" s="12">
         <v>97</v>
       </c>
-      <c r="B103" s="49"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="13" t="s">
         <v>277</v>
       </c>
@@ -8635,8 +8635,8 @@
       <c r="A104" s="12">
         <v>98</v>
       </c>
-      <c r="B104" s="49"/>
-      <c r="C104" s="56" t="s">
+      <c r="B104" s="44"/>
+      <c r="C104" s="41" t="s">
         <v>874</v>
       </c>
       <c r="D104" s="13" t="s">
@@ -8677,8 +8677,8 @@
       <c r="A105" s="12">
         <v>99</v>
       </c>
-      <c r="B105" s="49"/>
-      <c r="C105" s="56" t="s">
+      <c r="B105" s="44"/>
+      <c r="C105" s="41" t="s">
         <v>281</v>
       </c>
       <c r="D105" s="13" t="s">
@@ -8719,7 +8719,7 @@
       <c r="A106" s="12">
         <v>100</v>
       </c>
-      <c r="B106" s="49"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="13" t="s">
         <v>284</v>
       </c>
@@ -8761,7 +8761,7 @@
       <c r="A107" s="12">
         <v>101</v>
       </c>
-      <c r="B107" s="49"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="13" t="s">
         <v>287</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="A108" s="12">
         <v>102</v>
       </c>
-      <c r="B108" s="49"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="13" t="s">
         <v>288</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="A109" s="12">
         <v>103</v>
       </c>
-      <c r="B109" s="49"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="13" t="s">
         <v>290</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="A110" s="12">
         <v>104</v>
       </c>
-      <c r="B110" s="43"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="13" t="s">
         <v>293</v>
       </c>
@@ -8929,7 +8929,7 @@
       <c r="A111" s="12">
         <v>105</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="43" t="s">
         <v>296</v>
       </c>
       <c r="C111" s="25" t="s">
@@ -8973,7 +8973,7 @@
       <c r="A112" s="12">
         <v>106</v>
       </c>
-      <c r="B112" s="49"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="25" t="s">
         <v>299</v>
       </c>
@@ -9015,7 +9015,7 @@
       <c r="A113" s="12">
         <v>107</v>
       </c>
-      <c r="B113" s="43"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="18" t="s">
         <v>301</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="A114" s="12">
         <v>108</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="43" t="s">
         <v>877</v>
       </c>
       <c r="C114" s="13" t="s">
@@ -9101,7 +9101,7 @@
       <c r="A115" s="12">
         <v>109</v>
       </c>
-      <c r="B115" s="49"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="13" t="s">
         <v>118</v>
       </c>
@@ -9143,7 +9143,7 @@
       <c r="A116" s="12">
         <v>110</v>
       </c>
-      <c r="B116" s="49"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="18" t="s">
         <v>308</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="A117" s="12">
         <v>111</v>
       </c>
-      <c r="B117" s="43"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="18" t="s">
         <v>312</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="A118" s="12">
         <v>112</v>
       </c>
-      <c r="B118" s="50" t="s">
+      <c r="B118" s="43" t="s">
         <v>316</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -9271,7 +9271,7 @@
       <c r="A119" s="12">
         <v>113</v>
       </c>
-      <c r="B119" s="49"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="26" t="s">
         <v>321</v>
       </c>
@@ -9313,7 +9313,7 @@
       <c r="A120" s="12">
         <v>114</v>
       </c>
-      <c r="B120" s="49"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="26" t="s">
         <v>324</v>
       </c>
@@ -9355,7 +9355,7 @@
       <c r="A121" s="12">
         <v>115</v>
       </c>
-      <c r="B121" s="49"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="13" t="s">
         <v>328</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="A122" s="12">
         <v>116</v>
       </c>
-      <c r="B122" s="49"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="13" t="s">
         <v>332</v>
       </c>
@@ -9439,7 +9439,7 @@
       <c r="A123" s="12">
         <v>117</v>
       </c>
-      <c r="B123" s="49"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="13" t="s">
         <v>335</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="A124" s="12">
         <v>118</v>
       </c>
-      <c r="B124" s="43"/>
+      <c r="B124" s="45"/>
       <c r="C124" s="13" t="s">
         <v>338</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="A125" s="12">
         <v>119</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="43" t="s">
         <v>342</v>
       </c>
       <c r="C125" s="21" t="s">
@@ -9567,7 +9567,7 @@
       <c r="A126" s="12">
         <v>120</v>
       </c>
-      <c r="B126" s="49"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="21" t="s">
         <v>345</v>
       </c>
@@ -9609,7 +9609,7 @@
       <c r="A127" s="12">
         <v>121</v>
       </c>
-      <c r="B127" s="49"/>
+      <c r="B127" s="44"/>
       <c r="C127" s="21" t="s">
         <v>347</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="A128" s="12">
         <v>122</v>
       </c>
-      <c r="B128" s="49"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="21" t="s">
         <v>349</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="A129" s="12">
         <v>123</v>
       </c>
-      <c r="B129" s="49"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="21" t="s">
         <v>351</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="A130" s="12">
         <v>124</v>
       </c>
-      <c r="B130" s="43"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="21" t="s">
         <v>353</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="A131" s="12">
         <v>125</v>
       </c>
-      <c r="B131" s="50" t="s">
+      <c r="B131" s="43" t="s">
         <v>355</v>
       </c>
       <c r="C131" s="18" t="s">
@@ -9821,7 +9821,7 @@
       <c r="A132" s="12">
         <v>126</v>
       </c>
-      <c r="B132" s="49"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="21" t="s">
         <v>359</v>
       </c>
@@ -9863,7 +9863,7 @@
       <c r="A133" s="12">
         <v>127</v>
       </c>
-      <c r="B133" s="49"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="21" t="s">
         <v>363</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="A134" s="12">
         <v>128</v>
       </c>
-      <c r="B134" s="49"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="21" t="s">
         <v>365</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="A135" s="12">
         <v>129</v>
       </c>
-      <c r="B135" s="49"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="13" t="s">
         <v>367</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="A136" s="12">
         <v>130</v>
       </c>
-      <c r="B136" s="43"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="21" t="s">
         <v>369</v>
       </c>
@@ -10031,7 +10031,7 @@
       <c r="A137" s="12">
         <v>131</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="43" t="s">
         <v>371</v>
       </c>
       <c r="C137" s="21" t="s">
@@ -10075,7 +10075,7 @@
       <c r="A138" s="12">
         <v>132</v>
       </c>
-      <c r="B138" s="43"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="21" t="s">
         <v>375</v>
       </c>
@@ -10117,7 +10117,7 @@
       <c r="A139" s="12">
         <v>133</v>
       </c>
-      <c r="B139" s="50" t="s">
+      <c r="B139" s="43" t="s">
         <v>883</v>
       </c>
       <c r="C139" s="21" t="s">
@@ -10161,7 +10161,7 @@
       <c r="A140" s="12">
         <v>134</v>
       </c>
-      <c r="B140" s="49"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="21" t="s">
         <v>378</v>
       </c>
@@ -10203,7 +10203,7 @@
       <c r="A141" s="12">
         <v>135</v>
       </c>
-      <c r="B141" s="49"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="21" t="s">
         <v>886</v>
       </c>
@@ -10245,7 +10245,7 @@
       <c r="A142" s="12">
         <v>136</v>
       </c>
-      <c r="B142" s="49"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="21" t="s">
         <v>379</v>
       </c>
@@ -10287,7 +10287,7 @@
       <c r="A143" s="12">
         <v>137</v>
       </c>
-      <c r="B143" s="49"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="21" t="s">
         <v>381</v>
       </c>
@@ -10329,7 +10329,7 @@
       <c r="A144" s="12">
         <v>138</v>
       </c>
-      <c r="B144" s="49"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="21" t="s">
         <v>382</v>
       </c>
@@ -10371,7 +10371,7 @@
       <c r="A145" s="12">
         <v>139</v>
       </c>
-      <c r="B145" s="49"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="21" t="s">
         <v>383</v>
       </c>
@@ -10413,7 +10413,7 @@
       <c r="A146" s="12">
         <v>140</v>
       </c>
-      <c r="B146" s="43"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="21" t="s">
         <v>384</v>
       </c>
@@ -10455,7 +10455,7 @@
       <c r="A147" s="12">
         <v>141</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="43" t="s">
         <v>385</v>
       </c>
       <c r="C147" s="21" t="s">
@@ -10499,7 +10499,7 @@
       <c r="A148" s="12">
         <v>142</v>
       </c>
-      <c r="B148" s="49"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="21" t="s">
         <v>388</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="A149" s="12">
         <v>143</v>
       </c>
-      <c r="B149" s="49"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="21" t="s">
         <v>894</v>
       </c>
@@ -10583,7 +10583,7 @@
       <c r="A150" s="12">
         <v>144</v>
       </c>
-      <c r="B150" s="49"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="21" t="s">
         <v>390</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="A151" s="12">
         <v>145</v>
       </c>
-      <c r="B151" s="49"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="21" t="s">
         <v>392</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="A152" s="12">
         <v>146</v>
       </c>
-      <c r="B152" s="49"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="21" t="s">
         <v>393</v>
       </c>
@@ -10709,7 +10709,7 @@
       <c r="A153" s="12">
         <v>147</v>
       </c>
-      <c r="B153" s="49"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="21" t="s">
         <v>896</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="A154" s="12">
         <v>148</v>
       </c>
-      <c r="B154" s="43"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="21" t="s">
         <v>396</v>
       </c>
@@ -10793,7 +10793,7 @@
       <c r="A155" s="12">
         <v>149</v>
       </c>
-      <c r="B155" s="50" t="s">
+      <c r="B155" s="43" t="s">
         <v>398</v>
       </c>
       <c r="C155" s="18" t="s">
@@ -10837,7 +10837,7 @@
       <c r="A156" s="12">
         <v>150</v>
       </c>
-      <c r="B156" s="49"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="21" t="s">
         <v>898</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="A157" s="12">
         <v>151</v>
       </c>
-      <c r="B157" s="49"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="21" t="s">
         <v>901</v>
       </c>
@@ -10921,7 +10921,7 @@
       <c r="A158" s="12">
         <v>152</v>
       </c>
-      <c r="B158" s="49"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="21" t="s">
         <v>903</v>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="A159" s="12">
         <v>153</v>
       </c>
-      <c r="B159" s="49"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="21" t="s">
         <v>403</v>
       </c>
@@ -11005,7 +11005,7 @@
       <c r="A160" s="12">
         <v>154</v>
       </c>
-      <c r="B160" s="49"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="17" t="s">
         <v>904</v>
       </c>
@@ -11047,7 +11047,7 @@
       <c r="A161" s="12">
         <v>155</v>
       </c>
-      <c r="B161" s="49"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="21" t="s">
         <v>406</v>
       </c>
@@ -11089,7 +11089,7 @@
       <c r="A162" s="12">
         <v>156</v>
       </c>
-      <c r="B162" s="49"/>
+      <c r="B162" s="44"/>
       <c r="C162" s="21" t="s">
         <v>408</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="A163" s="12">
         <v>157</v>
       </c>
-      <c r="B163" s="49"/>
+      <c r="B163" s="44"/>
       <c r="C163" s="21" t="s">
         <v>411</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="A164" s="12">
         <v>158</v>
       </c>
-      <c r="B164" s="49"/>
+      <c r="B164" s="44"/>
       <c r="C164" s="21" t="s">
         <v>905</v>
       </c>
@@ -11215,7 +11215,7 @@
       <c r="A165" s="12">
         <v>159</v>
       </c>
-      <c r="B165" s="43"/>
+      <c r="B165" s="45"/>
       <c r="C165" s="21" t="s">
         <v>414</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="A166" s="12">
         <v>160</v>
       </c>
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="43" t="s">
         <v>417</v>
       </c>
       <c r="C166" s="21" t="s">
@@ -11301,7 +11301,7 @@
       <c r="A167" s="12">
         <v>161</v>
       </c>
-      <c r="B167" s="49"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="21" t="s">
         <v>421</v>
       </c>
@@ -11343,7 +11343,7 @@
       <c r="A168" s="12">
         <v>162</v>
       </c>
-      <c r="B168" s="49"/>
+      <c r="B168" s="44"/>
       <c r="C168" s="21" t="s">
         <v>422</v>
       </c>
@@ -11385,7 +11385,7 @@
       <c r="A169" s="12">
         <v>163</v>
       </c>
-      <c r="B169" s="49"/>
+      <c r="B169" s="44"/>
       <c r="C169" s="21" t="s">
         <v>425</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="A170" s="12">
         <v>164</v>
       </c>
-      <c r="B170" s="49"/>
+      <c r="B170" s="44"/>
       <c r="C170" s="21" t="s">
         <v>428</v>
       </c>
@@ -11469,7 +11469,7 @@
       <c r="A171" s="12">
         <v>165</v>
       </c>
-      <c r="B171" s="49"/>
+      <c r="B171" s="44"/>
       <c r="C171" s="21" t="s">
         <v>430</v>
       </c>
@@ -11511,7 +11511,7 @@
       <c r="A172" s="12">
         <v>166</v>
       </c>
-      <c r="B172" s="49"/>
+      <c r="B172" s="44"/>
       <c r="C172" s="21" t="s">
         <v>432</v>
       </c>
@@ -11553,7 +11553,7 @@
       <c r="A173" s="12">
         <v>167</v>
       </c>
-      <c r="B173" s="49"/>
+      <c r="B173" s="44"/>
       <c r="C173" s="21" t="s">
         <v>433</v>
       </c>
@@ -11595,7 +11595,7 @@
       <c r="A174" s="12">
         <v>168</v>
       </c>
-      <c r="B174" s="49"/>
+      <c r="B174" s="44"/>
       <c r="C174" s="21" t="s">
         <v>435</v>
       </c>
@@ -11637,7 +11637,7 @@
       <c r="A175" s="12">
         <v>169</v>
       </c>
-      <c r="B175" s="49"/>
+      <c r="B175" s="44"/>
       <c r="C175" s="21" t="s">
         <v>437</v>
       </c>
@@ -11679,7 +11679,7 @@
       <c r="A176" s="12">
         <v>170</v>
       </c>
-      <c r="B176" s="49"/>
+      <c r="B176" s="44"/>
       <c r="C176" s="21" t="s">
         <v>439</v>
       </c>
@@ -11721,7 +11721,7 @@
       <c r="A177" s="12">
         <v>171</v>
       </c>
-      <c r="B177" s="49"/>
+      <c r="B177" s="44"/>
       <c r="C177" s="21" t="s">
         <v>440</v>
       </c>
@@ -11763,7 +11763,7 @@
       <c r="A178" s="12">
         <v>172</v>
       </c>
-      <c r="B178" s="49"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="21" t="s">
         <v>442</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="A179" s="12">
         <v>173</v>
       </c>
-      <c r="B179" s="49"/>
+      <c r="B179" s="44"/>
       <c r="C179" s="21" t="s">
         <v>444</v>
       </c>
@@ -11847,7 +11847,7 @@
       <c r="A180" s="12">
         <v>174</v>
       </c>
-      <c r="B180" s="49"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="21" t="s">
         <v>446</v>
       </c>
@@ -11889,7 +11889,7 @@
       <c r="A181" s="12">
         <v>175</v>
       </c>
-      <c r="B181" s="49"/>
+      <c r="B181" s="44"/>
       <c r="C181" s="21" t="s">
         <v>448</v>
       </c>
@@ -11931,7 +11931,7 @@
       <c r="A182" s="12">
         <v>176</v>
       </c>
-      <c r="B182" s="49"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="21" t="s">
         <v>449</v>
       </c>
@@ -11973,7 +11973,7 @@
       <c r="A183" s="12">
         <v>177</v>
       </c>
-      <c r="B183" s="49"/>
+      <c r="B183" s="44"/>
       <c r="C183" s="21" t="s">
         <v>451</v>
       </c>
@@ -12015,7 +12015,7 @@
       <c r="A184" s="12">
         <v>178</v>
       </c>
-      <c r="B184" s="49"/>
+      <c r="B184" s="44"/>
       <c r="C184" s="21" t="s">
         <v>453</v>
       </c>
@@ -12057,7 +12057,7 @@
       <c r="A185" s="12">
         <v>179</v>
       </c>
-      <c r="B185" s="49"/>
+      <c r="B185" s="44"/>
       <c r="C185" s="21" t="s">
         <v>455</v>
       </c>
@@ -12099,7 +12099,7 @@
       <c r="A186" s="12">
         <v>180</v>
       </c>
-      <c r="B186" s="49"/>
+      <c r="B186" s="44"/>
       <c r="C186" s="21" t="s">
         <v>457</v>
       </c>
@@ -12141,7 +12141,7 @@
       <c r="A187" s="12">
         <v>181</v>
       </c>
-      <c r="B187" s="49"/>
+      <c r="B187" s="44"/>
       <c r="C187" s="21" t="s">
         <v>459</v>
       </c>
@@ -12183,7 +12183,7 @@
       <c r="A188" s="12">
         <v>182</v>
       </c>
-      <c r="B188" s="49"/>
+      <c r="B188" s="44"/>
       <c r="C188" s="21" t="s">
         <v>461</v>
       </c>
@@ -12225,7 +12225,7 @@
       <c r="A189" s="12">
         <v>183</v>
       </c>
-      <c r="B189" s="43"/>
+      <c r="B189" s="45"/>
       <c r="C189" s="21" t="s">
         <v>463</v>
       </c>
@@ -12267,7 +12267,7 @@
       <c r="A190" s="12">
         <v>184</v>
       </c>
-      <c r="B190" s="50" t="s">
+      <c r="B190" s="43" t="s">
         <v>464</v>
       </c>
       <c r="C190" s="21" t="s">
@@ -12311,7 +12311,7 @@
       <c r="A191" s="12">
         <v>185</v>
       </c>
-      <c r="B191" s="49"/>
+      <c r="B191" s="44"/>
       <c r="C191" s="21" t="s">
         <v>913</v>
       </c>
@@ -12353,7 +12353,7 @@
       <c r="A192" s="12">
         <v>186</v>
       </c>
-      <c r="B192" s="49"/>
+      <c r="B192" s="44"/>
       <c r="C192" s="21" t="s">
         <v>469</v>
       </c>
@@ -12395,7 +12395,7 @@
       <c r="A193" s="12">
         <v>187</v>
       </c>
-      <c r="B193" s="49"/>
+      <c r="B193" s="44"/>
       <c r="C193" s="21" t="s">
         <v>471</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="A194" s="12">
         <v>188</v>
       </c>
-      <c r="B194" s="49"/>
+      <c r="B194" s="44"/>
       <c r="C194" s="21" t="s">
         <v>473</v>
       </c>
@@ -12479,7 +12479,7 @@
       <c r="A195" s="12">
         <v>189</v>
       </c>
-      <c r="B195" s="49"/>
+      <c r="B195" s="44"/>
       <c r="C195" s="21" t="s">
         <v>474</v>
       </c>
@@ -12521,7 +12521,7 @@
       <c r="A196" s="12">
         <v>190</v>
       </c>
-      <c r="B196" s="49"/>
+      <c r="B196" s="44"/>
       <c r="C196" s="21" t="s">
         <v>915</v>
       </c>
@@ -12563,7 +12563,7 @@
       <c r="A197" s="12">
         <v>191</v>
       </c>
-      <c r="B197" s="43"/>
+      <c r="B197" s="45"/>
       <c r="C197" s="21" t="s">
         <v>477</v>
       </c>
@@ -12605,7 +12605,7 @@
       <c r="A198" s="12">
         <v>192</v>
       </c>
-      <c r="B198" s="50" t="s">
+      <c r="B198" s="43" t="s">
         <v>479</v>
       </c>
       <c r="C198" s="21" t="s">
@@ -12649,7 +12649,7 @@
       <c r="A199" s="12">
         <v>193</v>
       </c>
-      <c r="B199" s="49"/>
+      <c r="B199" s="44"/>
       <c r="C199" s="21" t="s">
         <v>919</v>
       </c>
@@ -12691,7 +12691,7 @@
       <c r="A200" s="12">
         <v>194</v>
       </c>
-      <c r="B200" s="49"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="21" t="s">
         <v>483</v>
       </c>
@@ -12733,7 +12733,7 @@
       <c r="A201" s="12">
         <v>195</v>
       </c>
-      <c r="B201" s="49"/>
+      <c r="B201" s="44"/>
       <c r="C201" s="21" t="s">
         <v>485</v>
       </c>
@@ -12775,7 +12775,7 @@
       <c r="A202" s="12">
         <v>196</v>
       </c>
-      <c r="B202" s="49"/>
+      <c r="B202" s="44"/>
       <c r="C202" s="21" t="s">
         <v>487</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="A203" s="12">
         <v>197</v>
       </c>
-      <c r="B203" s="49"/>
+      <c r="B203" s="44"/>
       <c r="C203" s="21" t="s">
         <v>921</v>
       </c>
@@ -12859,7 +12859,7 @@
       <c r="A204" s="12">
         <v>198</v>
       </c>
-      <c r="B204" s="49"/>
+      <c r="B204" s="44"/>
       <c r="C204" s="21" t="s">
         <v>474</v>
       </c>
@@ -12901,7 +12901,7 @@
       <c r="A205" s="12">
         <v>199</v>
       </c>
-      <c r="B205" s="43"/>
+      <c r="B205" s="45"/>
       <c r="C205" s="21" t="s">
         <v>489</v>
       </c>
@@ -12943,7 +12943,7 @@
       <c r="A206" s="12">
         <v>200</v>
       </c>
-      <c r="B206" s="50" t="s">
+      <c r="B206" s="43" t="s">
         <v>491</v>
       </c>
       <c r="C206" s="21" t="s">
@@ -12987,7 +12987,7 @@
       <c r="A207" s="12">
         <v>201</v>
       </c>
-      <c r="B207" s="49"/>
+      <c r="B207" s="44"/>
       <c r="C207" s="21" t="s">
         <v>494</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="A208" s="12">
         <v>202</v>
       </c>
-      <c r="B208" s="49"/>
+      <c r="B208" s="44"/>
       <c r="C208" s="21" t="s">
         <v>925</v>
       </c>
@@ -13071,7 +13071,7 @@
       <c r="A209" s="12">
         <v>203</v>
       </c>
-      <c r="B209" s="49"/>
+      <c r="B209" s="44"/>
       <c r="C209" s="21" t="s">
         <v>926</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="A210" s="12">
         <v>204</v>
       </c>
-      <c r="B210" s="49"/>
+      <c r="B210" s="44"/>
       <c r="C210" s="21" t="s">
         <v>497</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="A211" s="12">
         <v>205</v>
       </c>
-      <c r="B211" s="49"/>
+      <c r="B211" s="44"/>
       <c r="C211" s="21" t="s">
         <v>501</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="A212" s="12">
         <v>206</v>
       </c>
-      <c r="B212" s="49"/>
+      <c r="B212" s="44"/>
       <c r="C212" s="21" t="s">
         <v>927</v>
       </c>
@@ -13239,7 +13239,7 @@
       <c r="A213" s="12">
         <v>207</v>
       </c>
-      <c r="B213" s="49"/>
+      <c r="B213" s="44"/>
       <c r="C213" s="21" t="s">
         <v>507</v>
       </c>
@@ -13281,7 +13281,7 @@
       <c r="A214" s="12">
         <v>208</v>
       </c>
-      <c r="B214" s="43"/>
+      <c r="B214" s="45"/>
       <c r="C214" s="21" t="s">
         <v>510</v>
       </c>
@@ -13323,7 +13323,7 @@
       <c r="A215" s="12">
         <v>209</v>
       </c>
-      <c r="B215" s="52" t="s">
+      <c r="B215" s="46" t="s">
         <v>514</v>
       </c>
       <c r="C215" s="21" t="s">
@@ -13367,7 +13367,7 @@
       <c r="A216" s="12">
         <v>210</v>
       </c>
-      <c r="B216" s="53"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="21" t="s">
         <v>517</v>
       </c>
@@ -13409,7 +13409,7 @@
       <c r="A217" s="12">
         <v>211</v>
       </c>
-      <c r="B217" s="53"/>
+      <c r="B217" s="47"/>
       <c r="C217" s="21" t="s">
         <v>519</v>
       </c>
@@ -13451,7 +13451,7 @@
       <c r="A218" s="12">
         <v>212</v>
       </c>
-      <c r="B218" s="53"/>
+      <c r="B218" s="47"/>
       <c r="C218" s="21" t="s">
         <v>521</v>
       </c>
@@ -13493,7 +13493,7 @@
       <c r="A219" s="12">
         <v>213</v>
       </c>
-      <c r="B219" s="53"/>
+      <c r="B219" s="47"/>
       <c r="C219" s="21" t="s">
         <v>523</v>
       </c>
@@ -13535,7 +13535,7 @@
       <c r="A220" s="12">
         <v>214</v>
       </c>
-      <c r="B220" s="53"/>
+      <c r="B220" s="47"/>
       <c r="C220" s="21" t="s">
         <v>525</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="A221" s="12">
         <v>215</v>
       </c>
-      <c r="B221" s="53"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="21" t="s">
         <v>527</v>
       </c>
@@ -13619,7 +13619,7 @@
       <c r="A222" s="12">
         <v>216</v>
       </c>
-      <c r="B222" s="53"/>
+      <c r="B222" s="47"/>
       <c r="C222" s="21" t="s">
         <v>529</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="A223" s="12">
         <v>217</v>
       </c>
-      <c r="B223" s="53"/>
+      <c r="B223" s="47"/>
       <c r="C223" s="21" t="s">
         <v>531</v>
       </c>
@@ -13703,7 +13703,7 @@
       <c r="A224" s="12">
         <v>218</v>
       </c>
-      <c r="B224" s="53"/>
+      <c r="B224" s="47"/>
       <c r="C224" s="21" t="s">
         <v>532</v>
       </c>
@@ -13745,7 +13745,7 @@
       <c r="A225" s="12">
         <v>219</v>
       </c>
-      <c r="B225" s="53"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="21" t="s">
         <v>534</v>
       </c>
@@ -13787,7 +13787,7 @@
       <c r="A226" s="12">
         <v>220</v>
       </c>
-      <c r="B226" s="53"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="21" t="s">
         <v>536</v>
       </c>
@@ -13829,7 +13829,7 @@
       <c r="A227" s="12">
         <v>221</v>
       </c>
-      <c r="B227" s="53"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="21" t="s">
         <v>538</v>
       </c>
@@ -13871,7 +13871,7 @@
       <c r="A228" s="12">
         <v>222</v>
       </c>
-      <c r="B228" s="53"/>
+      <c r="B228" s="47"/>
       <c r="C228" s="21" t="s">
         <v>540</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="A229" s="12">
         <v>223</v>
       </c>
-      <c r="B229" s="50" t="s">
+      <c r="B229" s="43" t="s">
         <v>542</v>
       </c>
       <c r="C229" s="21" t="s">
@@ -13957,7 +13957,7 @@
       <c r="A230" s="12">
         <v>224</v>
       </c>
-      <c r="B230" s="49"/>
+      <c r="B230" s="44"/>
       <c r="C230" s="21" t="s">
         <v>546</v>
       </c>
@@ -13999,7 +13999,7 @@
       <c r="A231" s="12">
         <v>225</v>
       </c>
-      <c r="B231" s="49"/>
+      <c r="B231" s="44"/>
       <c r="C231" s="21" t="s">
         <v>550</v>
       </c>
@@ -14041,7 +14041,7 @@
       <c r="A232" s="12">
         <v>226</v>
       </c>
-      <c r="B232" s="49"/>
+      <c r="B232" s="44"/>
       <c r="C232" s="21" t="s">
         <v>552</v>
       </c>
@@ -14083,7 +14083,7 @@
       <c r="A233" s="12">
         <v>227</v>
       </c>
-      <c r="B233" s="49"/>
+      <c r="B233" s="44"/>
       <c r="C233" s="21" t="s">
         <v>556</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="A234" s="12">
         <v>228</v>
       </c>
-      <c r="B234" s="49"/>
+      <c r="B234" s="44"/>
       <c r="C234" s="21" t="s">
         <v>560</v>
       </c>
@@ -14167,8 +14167,8 @@
       <c r="A235" s="12">
         <v>229</v>
       </c>
-      <c r="B235" s="49"/>
-      <c r="C235" s="57" t="s">
+      <c r="B235" s="44"/>
+      <c r="C235" s="42" t="s">
         <v>563</v>
       </c>
       <c r="D235" s="21" t="s">
@@ -14209,8 +14209,8 @@
       <c r="A236" s="12">
         <v>230</v>
       </c>
-      <c r="B236" s="43"/>
-      <c r="C236" s="57" t="s">
+      <c r="B236" s="45"/>
+      <c r="C236" s="42" t="s">
         <v>567</v>
       </c>
       <c r="D236" s="21" t="s">
@@ -14251,7 +14251,7 @@
       <c r="A237" s="12">
         <v>231</v>
       </c>
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="48" t="s">
         <v>570</v>
       </c>
       <c r="C237" s="13" t="s">
@@ -14295,7 +14295,7 @@
       <c r="A238" s="12">
         <v>232</v>
       </c>
-      <c r="B238" s="43"/>
+      <c r="B238" s="45"/>
       <c r="C238" s="13" t="s">
         <v>575</v>
       </c>
@@ -14337,7 +14337,7 @@
       <c r="A239" s="12">
         <v>233</v>
       </c>
-      <c r="B239" s="50" t="s">
+      <c r="B239" s="43" t="s">
         <v>578</v>
       </c>
       <c r="C239" s="21" t="s">
@@ -14381,7 +14381,7 @@
       <c r="A240" s="12">
         <v>234</v>
       </c>
-      <c r="B240" s="49"/>
+      <c r="B240" s="44"/>
       <c r="C240" s="21" t="s">
         <v>582</v>
       </c>
@@ -14423,7 +14423,7 @@
       <c r="A241" s="12">
         <v>235</v>
       </c>
-      <c r="B241" s="49"/>
+      <c r="B241" s="44"/>
       <c r="C241" s="21" t="s">
         <v>585</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="A242" s="12">
         <v>236</v>
       </c>
-      <c r="B242" s="49"/>
+      <c r="B242" s="44"/>
       <c r="C242" s="21" t="s">
         <v>587</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="A243" s="12">
         <v>237</v>
       </c>
-      <c r="B243" s="49"/>
+      <c r="B243" s="44"/>
       <c r="C243" s="21" t="s">
         <v>591</v>
       </c>
@@ -14549,7 +14549,7 @@
       <c r="A244" s="12">
         <v>238</v>
       </c>
-      <c r="B244" s="49"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="21" t="s">
         <v>595</v>
       </c>
@@ -14591,7 +14591,7 @@
       <c r="A245" s="12">
         <v>239</v>
       </c>
-      <c r="B245" s="49"/>
+      <c r="B245" s="44"/>
       <c r="C245" s="21" t="s">
         <v>598</v>
       </c>
@@ -14633,7 +14633,7 @@
       <c r="A246" s="12">
         <v>240</v>
       </c>
-      <c r="B246" s="43"/>
+      <c r="B246" s="45"/>
       <c r="C246" s="21" t="s">
         <v>602</v>
       </c>
@@ -14675,7 +14675,7 @@
       <c r="A247" s="12">
         <v>241</v>
       </c>
-      <c r="B247" s="51" t="s">
+      <c r="B247" s="48" t="s">
         <v>605</v>
       </c>
       <c r="C247" s="13" t="s">
@@ -14719,7 +14719,7 @@
       <c r="A248" s="12">
         <v>242</v>
       </c>
-      <c r="B248" s="43"/>
+      <c r="B248" s="45"/>
       <c r="C248" s="13" t="s">
         <v>609</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="A249" s="12">
         <v>243</v>
       </c>
-      <c r="B249" s="50" t="s">
+      <c r="B249" s="43" t="s">
         <v>611</v>
       </c>
       <c r="C249" s="21" t="s">
@@ -14805,7 +14805,7 @@
       <c r="A250" s="12">
         <v>244</v>
       </c>
-      <c r="B250" s="49"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="21" t="s">
         <v>615</v>
       </c>
@@ -14847,7 +14847,7 @@
       <c r="A251" s="12">
         <v>245</v>
       </c>
-      <c r="B251" s="49"/>
+      <c r="B251" s="44"/>
       <c r="C251" s="21" t="s">
         <v>618</v>
       </c>
@@ -14889,7 +14889,7 @@
       <c r="A252" s="12">
         <v>246</v>
       </c>
-      <c r="B252" s="49"/>
+      <c r="B252" s="44"/>
       <c r="C252" s="21" t="s">
         <v>620</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="A253" s="12">
         <v>247</v>
       </c>
-      <c r="B253" s="49"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="21" t="s">
         <v>624</v>
       </c>
@@ -14973,7 +14973,7 @@
       <c r="A254" s="12">
         <v>248</v>
       </c>
-      <c r="B254" s="49"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="21" t="s">
         <v>628</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="A255" s="12">
         <v>249</v>
       </c>
-      <c r="B255" s="49"/>
+      <c r="B255" s="44"/>
       <c r="C255" s="21" t="s">
         <v>631</v>
       </c>
@@ -15057,7 +15057,7 @@
       <c r="A256" s="12">
         <v>250</v>
       </c>
-      <c r="B256" s="43"/>
+      <c r="B256" s="45"/>
       <c r="C256" s="21" t="s">
         <v>635</v>
       </c>
@@ -15099,7 +15099,7 @@
       <c r="A257" s="12">
         <v>251</v>
       </c>
-      <c r="B257" s="51" t="s">
+      <c r="B257" s="48" t="s">
         <v>638</v>
       </c>
       <c r="C257" s="13" t="s">
@@ -15143,7 +15143,7 @@
       <c r="A258" s="12">
         <v>252</v>
       </c>
-      <c r="B258" s="43"/>
+      <c r="B258" s="45"/>
       <c r="C258" s="13" t="s">
         <v>642</v>
       </c>
@@ -15185,7 +15185,7 @@
       <c r="A259" s="12">
         <v>253</v>
       </c>
-      <c r="B259" s="50" t="s">
+      <c r="B259" s="43" t="s">
         <v>644</v>
       </c>
       <c r="C259" s="21" t="s">
@@ -15229,7 +15229,7 @@
       <c r="A260" s="12">
         <v>254</v>
       </c>
-      <c r="B260" s="49"/>
+      <c r="B260" s="44"/>
       <c r="C260" s="21" t="s">
         <v>648</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="A261" s="12">
         <v>255</v>
       </c>
-      <c r="B261" s="49"/>
+      <c r="B261" s="44"/>
       <c r="C261" s="21" t="s">
         <v>651</v>
       </c>
@@ -15313,7 +15313,7 @@
       <c r="A262" s="12">
         <v>256</v>
       </c>
-      <c r="B262" s="49"/>
+      <c r="B262" s="44"/>
       <c r="C262" s="21" t="s">
         <v>653</v>
       </c>
@@ -15355,7 +15355,7 @@
       <c r="A263" s="12">
         <v>257</v>
       </c>
-      <c r="B263" s="49"/>
+      <c r="B263" s="44"/>
       <c r="C263" s="21" t="s">
         <v>657</v>
       </c>
@@ -15397,7 +15397,7 @@
       <c r="A264" s="12">
         <v>258</v>
       </c>
-      <c r="B264" s="49"/>
+      <c r="B264" s="44"/>
       <c r="C264" s="21" t="s">
         <v>661</v>
       </c>
@@ -15439,7 +15439,7 @@
       <c r="A265" s="12">
         <v>259</v>
       </c>
-      <c r="B265" s="49"/>
+      <c r="B265" s="44"/>
       <c r="C265" s="21" t="s">
         <v>665</v>
       </c>
@@ -15481,7 +15481,7 @@
       <c r="A266" s="12">
         <v>260</v>
       </c>
-      <c r="B266" s="43"/>
+      <c r="B266" s="45"/>
       <c r="C266" s="21" t="s">
         <v>668</v>
       </c>
@@ -15523,7 +15523,7 @@
       <c r="A267" s="12">
         <v>261</v>
       </c>
-      <c r="B267" s="52" t="s">
+      <c r="B267" s="46" t="s">
         <v>670</v>
       </c>
       <c r="C267" s="13" t="s">
@@ -15567,7 +15567,7 @@
       <c r="A268" s="12">
         <v>262</v>
       </c>
-      <c r="B268" s="53"/>
+      <c r="B268" s="47"/>
       <c r="C268" s="13" t="s">
         <v>675</v>
       </c>
@@ -15609,7 +15609,7 @@
       <c r="A269" s="12">
         <v>263</v>
       </c>
-      <c r="B269" s="50" t="s">
+      <c r="B269" s="43" t="s">
         <v>678</v>
       </c>
       <c r="C269" s="21" t="s">
@@ -15653,7 +15653,7 @@
       <c r="A270" s="12">
         <v>264</v>
       </c>
-      <c r="B270" s="49"/>
+      <c r="B270" s="44"/>
       <c r="C270" s="21" t="s">
         <v>682</v>
       </c>
@@ -15695,7 +15695,7 @@
       <c r="A271" s="12">
         <v>265</v>
       </c>
-      <c r="B271" s="49"/>
+      <c r="B271" s="44"/>
       <c r="C271" s="21" t="s">
         <v>684</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="A272" s="12">
         <v>266</v>
       </c>
-      <c r="B272" s="49"/>
+      <c r="B272" s="44"/>
       <c r="C272" s="21" t="s">
         <v>687</v>
       </c>
@@ -15779,7 +15779,7 @@
       <c r="A273" s="12">
         <v>267</v>
       </c>
-      <c r="B273" s="49"/>
+      <c r="B273" s="44"/>
       <c r="C273" s="21" t="s">
         <v>691</v>
       </c>
@@ -15821,7 +15821,7 @@
       <c r="A274" s="12">
         <v>268</v>
       </c>
-      <c r="B274" s="49"/>
+      <c r="B274" s="44"/>
       <c r="C274" s="21" t="s">
         <v>695</v>
       </c>
@@ -15863,7 +15863,7 @@
       <c r="A275" s="12">
         <v>269</v>
       </c>
-      <c r="B275" s="49"/>
+      <c r="B275" s="44"/>
       <c r="C275" s="21" t="s">
         <v>698</v>
       </c>
@@ -15905,7 +15905,7 @@
       <c r="A276" s="12">
         <v>270</v>
       </c>
-      <c r="B276" s="43"/>
+      <c r="B276" s="45"/>
       <c r="C276" s="21" t="s">
         <v>702</v>
       </c>
@@ -15947,7 +15947,7 @@
       <c r="A277" s="12">
         <v>271</v>
       </c>
-      <c r="B277" s="50" t="s">
+      <c r="B277" s="43" t="s">
         <v>938</v>
       </c>
       <c r="C277" s="21" t="s">
@@ -15991,7 +15991,7 @@
       <c r="A278" s="12">
         <v>272</v>
       </c>
-      <c r="B278" s="49"/>
+      <c r="B278" s="44"/>
       <c r="C278" s="21" t="s">
         <v>707</v>
       </c>
@@ -16033,7 +16033,7 @@
       <c r="A279" s="12">
         <v>273</v>
       </c>
-      <c r="B279" s="49"/>
+      <c r="B279" s="44"/>
       <c r="C279" s="21" t="s">
         <v>710</v>
       </c>
@@ -16075,7 +16075,7 @@
       <c r="A280" s="12">
         <v>274</v>
       </c>
-      <c r="B280" s="49"/>
+      <c r="B280" s="44"/>
       <c r="C280" s="21" t="s">
         <v>713</v>
       </c>
@@ -16117,7 +16117,7 @@
       <c r="A281" s="12">
         <v>275</v>
       </c>
-      <c r="B281" s="49"/>
+      <c r="B281" s="44"/>
       <c r="C281" s="21" t="s">
         <v>716</v>
       </c>
@@ -16159,7 +16159,7 @@
       <c r="A282" s="12">
         <v>276</v>
       </c>
-      <c r="B282" s="49"/>
+      <c r="B282" s="44"/>
       <c r="C282" s="21" t="s">
         <v>719</v>
       </c>
@@ -16201,7 +16201,7 @@
       <c r="A283" s="12">
         <v>277</v>
       </c>
-      <c r="B283" s="49"/>
+      <c r="B283" s="44"/>
       <c r="C283" s="21" t="s">
         <v>722</v>
       </c>
@@ -16243,7 +16243,7 @@
       <c r="A284" s="12">
         <v>278</v>
       </c>
-      <c r="B284" s="49"/>
+      <c r="B284" s="44"/>
       <c r="C284" s="21" t="s">
         <v>939</v>
       </c>
@@ -16285,7 +16285,7 @@
       <c r="A285" s="12">
         <v>279</v>
       </c>
-      <c r="B285" s="49"/>
+      <c r="B285" s="44"/>
       <c r="C285" s="21" t="s">
         <v>941</v>
       </c>
@@ -16327,7 +16327,7 @@
       <c r="A286" s="12">
         <v>280</v>
       </c>
-      <c r="B286" s="49"/>
+      <c r="B286" s="44"/>
       <c r="C286" s="21" t="s">
         <v>728</v>
       </c>
@@ -16369,7 +16369,7 @@
       <c r="A287" s="12">
         <v>281</v>
       </c>
-      <c r="B287" s="49"/>
+      <c r="B287" s="44"/>
       <c r="C287" s="21" t="s">
         <v>730</v>
       </c>
@@ -16411,7 +16411,7 @@
       <c r="A288" s="12">
         <v>282</v>
       </c>
-      <c r="B288" s="49"/>
+      <c r="B288" s="44"/>
       <c r="C288" s="21" t="s">
         <v>946</v>
       </c>
@@ -16453,7 +16453,7 @@
       <c r="A289" s="12">
         <v>283</v>
       </c>
-      <c r="B289" s="49"/>
+      <c r="B289" s="44"/>
       <c r="C289" s="21" t="s">
         <v>732</v>
       </c>
@@ -16495,7 +16495,7 @@
       <c r="A290" s="12">
         <v>284</v>
       </c>
-      <c r="B290" s="43"/>
+      <c r="B290" s="45"/>
       <c r="C290" s="21" t="s">
         <v>949</v>
       </c>
@@ -16537,7 +16537,7 @@
       <c r="A291" s="12">
         <v>285</v>
       </c>
-      <c r="B291" s="50" t="s">
+      <c r="B291" s="43" t="s">
         <v>736</v>
       </c>
       <c r="C291" s="21" t="s">
@@ -16581,7 +16581,7 @@
       <c r="A292" s="12">
         <v>286</v>
       </c>
-      <c r="B292" s="49"/>
+      <c r="B292" s="44"/>
       <c r="C292" s="21" t="s">
         <v>739</v>
       </c>
@@ -16623,7 +16623,7 @@
       <c r="A293" s="12">
         <v>287</v>
       </c>
-      <c r="B293" s="49"/>
+      <c r="B293" s="44"/>
       <c r="C293" s="21" t="s">
         <v>615</v>
       </c>
@@ -16665,7 +16665,7 @@
       <c r="A294" s="12">
         <v>288</v>
       </c>
-      <c r="B294" s="49"/>
+      <c r="B294" s="44"/>
       <c r="C294" s="21" t="s">
         <v>744</v>
       </c>
@@ -16707,7 +16707,7 @@
       <c r="A295" s="12">
         <v>289</v>
       </c>
-      <c r="B295" s="49"/>
+      <c r="B295" s="44"/>
       <c r="C295" s="21" t="s">
         <v>746</v>
       </c>
@@ -16749,7 +16749,7 @@
       <c r="A296" s="12">
         <v>290</v>
       </c>
-      <c r="B296" s="49"/>
+      <c r="B296" s="44"/>
       <c r="C296" s="21" t="s">
         <v>750</v>
       </c>
@@ -16791,7 +16791,7 @@
       <c r="A297" s="12">
         <v>291</v>
       </c>
-      <c r="B297" s="49"/>
+      <c r="B297" s="44"/>
       <c r="C297" s="21" t="s">
         <v>754</v>
       </c>
@@ -16833,7 +16833,7 @@
       <c r="A298" s="12">
         <v>292</v>
       </c>
-      <c r="B298" s="49"/>
+      <c r="B298" s="44"/>
       <c r="C298" s="21" t="s">
         <v>757</v>
       </c>
@@ -16875,7 +16875,7 @@
       <c r="A299" s="12">
         <v>293</v>
       </c>
-      <c r="B299" s="43"/>
+      <c r="B299" s="45"/>
       <c r="C299" s="21" t="s">
         <v>760</v>
       </c>
@@ -16917,7 +16917,7 @@
       <c r="A300" s="12">
         <v>294</v>
       </c>
-      <c r="B300" s="50" t="s">
+      <c r="B300" s="43" t="s">
         <v>763</v>
       </c>
       <c r="C300" s="21" t="s">
@@ -16961,7 +16961,7 @@
       <c r="A301" s="12">
         <v>295</v>
       </c>
-      <c r="B301" s="49"/>
+      <c r="B301" s="44"/>
       <c r="C301" s="21" t="s">
         <v>767</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="A302" s="12">
         <v>296</v>
       </c>
-      <c r="B302" s="49"/>
+      <c r="B302" s="44"/>
       <c r="C302" s="21" t="s">
         <v>770</v>
       </c>
@@ -17045,7 +17045,7 @@
       <c r="A303" s="12">
         <v>297</v>
       </c>
-      <c r="B303" s="49"/>
+      <c r="B303" s="44"/>
       <c r="C303" s="21" t="s">
         <v>774</v>
       </c>
@@ -17087,7 +17087,7 @@
       <c r="A304" s="12">
         <v>298</v>
       </c>
-      <c r="B304" s="49"/>
+      <c r="B304" s="44"/>
       <c r="C304" s="31" t="s">
         <v>778</v>
       </c>
@@ -17129,7 +17129,7 @@
       <c r="A305" s="12">
         <v>299</v>
       </c>
-      <c r="B305" s="49"/>
+      <c r="B305" s="44"/>
       <c r="C305" s="18" t="s">
         <v>954</v>
       </c>
@@ -17171,7 +17171,7 @@
       <c r="A306" s="12">
         <v>300</v>
       </c>
-      <c r="B306" s="49"/>
+      <c r="B306" s="44"/>
       <c r="C306" s="21" t="s">
         <v>782</v>
       </c>
@@ -17213,7 +17213,7 @@
       <c r="A307" s="12">
         <v>301</v>
       </c>
-      <c r="B307" s="43"/>
+      <c r="B307" s="45"/>
       <c r="C307" s="21" t="s">
         <v>785</v>
       </c>
@@ -17255,7 +17255,7 @@
       <c r="A308" s="12">
         <v>302</v>
       </c>
-      <c r="B308" s="50" t="s">
+      <c r="B308" s="43" t="s">
         <v>786</v>
       </c>
       <c r="C308" s="21" t="s">
@@ -17299,7 +17299,7 @@
       <c r="A309" s="12">
         <v>303</v>
       </c>
-      <c r="B309" s="43"/>
+      <c r="B309" s="45"/>
       <c r="C309" s="21" t="s">
         <v>790</v>
       </c>
@@ -17341,7 +17341,7 @@
       <c r="A310" s="12">
         <v>304</v>
       </c>
-      <c r="B310" s="50" t="s">
+      <c r="B310" s="43" t="s">
         <v>792</v>
       </c>
       <c r="C310" s="21" t="s">
@@ -17385,7 +17385,7 @@
       <c r="A311" s="12">
         <v>305</v>
       </c>
-      <c r="B311" s="43"/>
+      <c r="B311" s="45"/>
       <c r="C311" s="21" t="s">
         <v>796</v>
       </c>
@@ -17427,7 +17427,7 @@
       <c r="A312" s="12">
         <v>306</v>
       </c>
-      <c r="B312" s="50" t="s">
+      <c r="B312" s="43" t="s">
         <v>798</v>
       </c>
       <c r="C312" s="21" t="s">
@@ -17471,7 +17471,7 @@
       <c r="A313" s="12">
         <v>307</v>
       </c>
-      <c r="B313" s="49"/>
+      <c r="B313" s="44"/>
       <c r="C313" s="21" t="s">
         <v>802</v>
       </c>
@@ -17513,7 +17513,7 @@
       <c r="A314" s="12">
         <v>308</v>
       </c>
-      <c r="B314" s="49"/>
+      <c r="B314" s="44"/>
       <c r="C314" s="21" t="s">
         <v>804</v>
       </c>
@@ -17555,11 +17555,11 @@
       <c r="A315" s="12">
         <v>309</v>
       </c>
-      <c r="B315" s="49"/>
+      <c r="B315" s="44"/>
       <c r="C315" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="D315" s="54" t="s">
+      <c r="D315" s="39" t="s">
         <v>959</v>
       </c>
       <c r="E315" s="24" t="s">
@@ -17597,11 +17597,11 @@
       <c r="A316" s="12">
         <v>310</v>
       </c>
-      <c r="B316" s="49"/>
+      <c r="B316" s="44"/>
       <c r="C316" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="D316" s="54" t="s">
+      <c r="D316" s="39" t="s">
         <v>959</v>
       </c>
       <c r="E316" s="24" t="s">
@@ -17639,11 +17639,11 @@
       <c r="A317" s="12">
         <v>311</v>
       </c>
-      <c r="B317" s="49"/>
+      <c r="B317" s="44"/>
       <c r="C317" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="D317" s="54" t="s">
+      <c r="D317" s="39" t="s">
         <v>961</v>
       </c>
       <c r="E317" s="24" t="s">
@@ -17681,7 +17681,7 @@
       <c r="A318" s="12">
         <v>312</v>
       </c>
-      <c r="B318" s="49"/>
+      <c r="B318" s="44"/>
       <c r="C318" s="21" t="s">
         <v>810</v>
       </c>
@@ -17723,7 +17723,7 @@
       <c r="A319" s="12">
         <v>313</v>
       </c>
-      <c r="B319" s="49"/>
+      <c r="B319" s="44"/>
       <c r="C319" s="21" t="s">
         <v>812</v>
       </c>
@@ -17765,7 +17765,7 @@
       <c r="A320" s="12">
         <v>314</v>
       </c>
-      <c r="B320" s="43"/>
+      <c r="B320" s="45"/>
       <c r="C320" s="18" t="s">
         <v>814</v>
       </c>
@@ -17807,7 +17807,7 @@
       <c r="A321" s="12">
         <v>315</v>
       </c>
-      <c r="B321" s="50" t="s">
+      <c r="B321" s="43" t="s">
         <v>817</v>
       </c>
       <c r="C321" s="21" t="s">
@@ -17851,7 +17851,7 @@
       <c r="A322" s="12">
         <v>316</v>
       </c>
-      <c r="B322" s="49"/>
+      <c r="B322" s="44"/>
       <c r="C322" s="21" t="s">
         <v>820</v>
       </c>
@@ -17893,7 +17893,7 @@
       <c r="A323" s="12">
         <v>317</v>
       </c>
-      <c r="B323" s="49"/>
+      <c r="B323" s="44"/>
       <c r="C323" s="21" t="s">
         <v>824</v>
       </c>
@@ -17935,7 +17935,7 @@
       <c r="A324" s="12">
         <v>318</v>
       </c>
-      <c r="B324" s="43"/>
+      <c r="B324" s="45"/>
       <c r="C324" s="21" t="s">
         <v>827</v>
       </c>
@@ -17977,7 +17977,7 @@
       <c r="A325" s="12">
         <v>319</v>
       </c>
-      <c r="B325" s="50" t="s">
+      <c r="B325" s="43" t="s">
         <v>830</v>
       </c>
       <c r="C325" s="21" t="s">
@@ -18021,7 +18021,7 @@
       <c r="A326" s="12">
         <v>320</v>
       </c>
-      <c r="B326" s="49"/>
+      <c r="B326" s="44"/>
       <c r="C326" s="21" t="s">
         <v>834</v>
       </c>
@@ -18063,7 +18063,7 @@
       <c r="A327" s="12">
         <v>321</v>
       </c>
-      <c r="B327" s="49"/>
+      <c r="B327" s="44"/>
       <c r="C327" s="21" t="s">
         <v>838</v>
       </c>
@@ -18105,7 +18105,7 @@
       <c r="A328" s="12">
         <v>322</v>
       </c>
-      <c r="B328" s="49"/>
+      <c r="B328" s="44"/>
       <c r="C328" s="21" t="s">
         <v>841</v>
       </c>
@@ -18147,7 +18147,7 @@
       <c r="A329" s="12">
         <v>323</v>
       </c>
-      <c r="B329" s="43"/>
+      <c r="B329" s="45"/>
       <c r="C329" s="21" t="s">
         <v>844</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="A330" s="12">
         <v>324</v>
       </c>
-      <c r="B330" s="50" t="s">
+      <c r="B330" s="43" t="s">
         <v>847</v>
       </c>
       <c r="C330" s="21" t="s">
@@ -18233,7 +18233,7 @@
       <c r="A331" s="12">
         <v>325</v>
       </c>
-      <c r="B331" s="49"/>
+      <c r="B331" s="44"/>
       <c r="C331" s="21" t="s">
         <v>851</v>
       </c>
@@ -18275,7 +18275,7 @@
       <c r="A332" s="12">
         <v>326</v>
       </c>
-      <c r="B332" s="49"/>
+      <c r="B332" s="44"/>
       <c r="C332" s="21" t="s">
         <v>852</v>
       </c>
@@ -18317,7 +18317,7 @@
       <c r="A333" s="12">
         <v>327</v>
       </c>
-      <c r="B333" s="49"/>
+      <c r="B333" s="44"/>
       <c r="C333" s="21" t="s">
         <v>853</v>
       </c>
@@ -18359,7 +18359,7 @@
       <c r="A334" s="12">
         <v>328</v>
       </c>
-      <c r="B334" s="49"/>
+      <c r="B334" s="44"/>
       <c r="C334" s="21" t="s">
         <v>965</v>
       </c>
@@ -18401,7 +18401,7 @@
       <c r="A335" s="33">
         <v>329</v>
       </c>
-      <c r="B335" s="43"/>
+      <c r="B335" s="45"/>
       <c r="C335" s="21" t="s">
         <v>856</v>
       </c>
@@ -40117,6 +40117,41 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B25:B46"/>
+    <mergeCell ref="B47:B57"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="B97:B110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B146"/>
+    <mergeCell ref="B147:B154"/>
+    <mergeCell ref="B155:B165"/>
+    <mergeCell ref="B166:B189"/>
+    <mergeCell ref="B190:B197"/>
+    <mergeCell ref="B198:B205"/>
+    <mergeCell ref="B206:B214"/>
+    <mergeCell ref="B215:B228"/>
+    <mergeCell ref="B229:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="B259:B266"/>
     <mergeCell ref="B312:B320"/>
     <mergeCell ref="B321:B324"/>
     <mergeCell ref="B325:B329"/>
@@ -40128,41 +40163,6 @@
     <mergeCell ref="B300:B307"/>
     <mergeCell ref="B308:B309"/>
     <mergeCell ref="B310:B311"/>
-    <mergeCell ref="B239:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B266"/>
-    <mergeCell ref="B198:B205"/>
-    <mergeCell ref="B206:B214"/>
-    <mergeCell ref="B215:B228"/>
-    <mergeCell ref="B229:B236"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B139:B146"/>
-    <mergeCell ref="B147:B154"/>
-    <mergeCell ref="B155:B165"/>
-    <mergeCell ref="B166:B189"/>
-    <mergeCell ref="B190:B197"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="B84:B96"/>
-    <mergeCell ref="B97:B110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B25:B46"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="I7">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Same as expected result">
